--- a/biology/Mycologie/Didymium_(myxomycète)/Didymium_(myxomycète).xlsx
+++ b/biology/Mycologie/Didymium_(myxomycète)/Didymium_(myxomycète).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Didymium_(myxomyc%C3%A8te)</t>
+          <t>Didymium_(myxomycète)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymium est un genre de myxomycètes, de la famille des Didymiaceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Didymium_(myxomyc%C3%A8te)</t>
+          <t>Didymium_(myxomycète)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (17 septembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (17 septembre 2020) :
 Didymium aggregatum G.Moreno &amp; Lizárraga, 2017
 Didymium anellus Morgan, 1894
 Didymium angularisporum J.Matsumoto, 1999
@@ -607,7 +621,7 @@
 Didymium verrucisporum A.L.Welden, 1954
 Didymium wildpretii Mosquera, Estrada, Beltrán-Tej., D.Wrigley &amp; Lado, 2007
 Didymium xerophilum Lado, Estrada &amp; D.Wrigley, 2015
-Selon Index Fungorum                                      (17 septembre 2020)[3] :
+Selon Index Fungorum                                      (17 septembre 2020) :
 Didymium affine Raunk. 1890
 Didymium aggregatum G. Moreno &amp; M. Lizárraga 2017
 Didymium anellus Morgan 1894
